--- a/Atributos.xlsx
+++ b/Atributos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\OneDrive\Documentos\GitHub\Churn_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DE423-030A-4479-A518-E38126C29444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C123C0C-E68A-4FCE-80D0-8D0A1C022665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{926D4D33-08BD-422B-B5F6-EC170FE57E2A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Dependentes</t>
   </si>
@@ -243,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -288,26 +288,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,8 +304,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C337A-C3DD-49F9-B098-79311B60588F}">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +630,9 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -662,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -672,14 +653,8 @@
       <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -689,11 +664,8 @@
       <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -703,11 +675,8 @@
       <c r="D5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -717,11 +686,8 @@
       <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -732,7 +698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -742,11 +708,8 @@
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -756,11 +719,8 @@
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -770,11 +730,8 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -784,11 +741,8 @@
       <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -798,11 +752,8 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
@@ -812,11 +763,8 @@
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -826,11 +774,8 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
@@ -840,11 +785,8 @@
       <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -854,11 +796,8 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
@@ -869,7 +808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
@@ -879,11 +818,8 @@
       <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
@@ -893,11 +829,8 @@
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
@@ -907,11 +840,8 @@
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -921,11 +851,8 @@
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,9 +861,6 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Atributos.xlsx
+++ b/Atributos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\OneDrive\Documentos\GitHub\Churn_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C123C0C-E68A-4FCE-80D0-8D0A1C022665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31027C42-897B-46EF-89CF-D4660D99379B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{926D4D33-08BD-422B-B5F6-EC170FE57E2A}"/>
+    <workbookView xWindow="2445" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{926D4D33-08BD-422B-B5F6-EC170FE57E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Dependentes</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Valor Recebido Mensal [$$]</t>
   </si>
   <si>
-    <t xml:space="preserve">Boleto Eletrônico, Boleto Impresso, Débito automático, Cartão de Crédito </t>
-  </si>
-  <si>
     <t>Fatural Digital [Sim ou Não]</t>
   </si>
   <si>
@@ -201,13 +198,31 @@
   </si>
   <si>
     <t>Sim, Não, Sem Serviço Internet</t>
+  </si>
+  <si>
+    <t>Quantidade de linhas</t>
+  </si>
+  <si>
+    <t>Colunas</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Quantidade de Colunas</t>
+  </si>
+  <si>
+    <t>Atributos das Colunas</t>
+  </si>
+  <si>
+    <t>Bank Transfer, Credit Card, Mailed Check, Eletronic Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +237,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -288,11 +317,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,6 +421,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C337A-C3DD-49F9-B098-79311B60588F}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,238 +773,283 @@
     <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <v>7043</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
